--- a/Componet List.xlsx
+++ b/Componet List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A543B59-1F39-49CB-8B74-3882170A6E04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C48E50-5226-41CF-8545-7C8DFDC81C10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>3.3v pwm控制 三相有霍尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（烧了一个）加购一个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +512,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -516,7 +520,7 @@
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.5" customWidth="1"/>
     <col min="6" max="6" width="41.5" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
     <col min="8" max="8" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -615,14 +619,17 @@
         <v>49</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -887,7 +894,7 @@
       </c>
       <c r="G19">
         <f>SUM(E2:E18)</f>
-        <v>2782.72</v>
+        <v>2831.72</v>
       </c>
     </row>
   </sheetData>

--- a/Componet List.xlsx
+++ b/Componet List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C48E50-5226-41CF-8545-7C8DFDC81C10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27393FF5-126B-4336-8E3F-397BFBE09144}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,10 @@
   </si>
   <si>
     <t>（烧了一个）加购一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,13 +201,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -215,11 +232,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,10 +248,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -559,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E16" si="0">C2*D2</f>
+        <f t="shared" ref="E2:E17" si="0">C2*D2</f>
         <v>472</v>
       </c>
       <c r="F2" t="s">
@@ -646,7 +670,7 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
@@ -690,7 +714,7 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
@@ -712,7 +736,7 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
@@ -847,7 +871,7 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
@@ -863,12 +887,15 @@
         <v>31</v>
       </c>
       <c r="C17" s="1">
-        <v>69.900000000000006</v>
+        <v>126</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
       <c r="F17" t="s">
         <v>32</v>
       </c>
@@ -881,20 +908,49 @@
         <v>22</v>
       </c>
       <c r="C18" s="1">
-        <v>799</v>
+        <v>899</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="4">
+        <v>899</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="3" t="s">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <f>C19*D19</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G19">
-        <f>SUM(E2:E18)</f>
-        <v>2831.72</v>
+      <c r="G23">
+        <f>SUM(E2:E22)</f>
+        <v>3882.72</v>
       </c>
     </row>
   </sheetData>

--- a/Componet List.xlsx
+++ b/Componet List.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27393FF5-126B-4336-8E3F-397BFBE09144}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D5DD05-9AB0-4E20-B563-FC71EA79EDC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,6 +14,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -536,7 +541,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -582,8 +587,8 @@
       <c r="D2" s="1">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
-        <f t="shared" ref="E2:E17" si="0">C2*D2</f>
+      <c r="E2" s="4">
+        <f>C2*D2</f>
         <v>472</v>
       </c>
       <c r="F2" t="s">
@@ -604,8 +609,8 @@
       <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" si="0"/>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E17" si="0">C3*D3</f>
         <v>700</v>
       </c>
       <c r="F3" t="s">
@@ -925,14 +930,14 @@
         <v>37</v>
       </c>
       <c r="C19" s="1">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="4">
         <f>C19*D19</f>
-        <v>26</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -950,7 +955,7 @@
       </c>
       <c r="G23">
         <f>SUM(E2:E22)</f>
-        <v>3882.72</v>
+        <v>3982.72</v>
       </c>
     </row>
   </sheetData>
